--- a/adresso_1024_regression_False.xlsx
+++ b/adresso_1024_regression_False.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>speaker</t>
+  </si>
+  <si>
+    <t>lin</t>
   </si>
   <si>
     <t>svr</t>
@@ -590,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,985 +609,2388 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>25.77444880459875</v>
+        <v>0.3375046779533498</v>
       </c>
       <c r="D2">
-        <v>25.66666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.5514060201263612</v>
+      </c>
+      <c r="E2">
+        <v>0.4138097841888559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>23.61831220074376</v>
+        <v>1.26099038697342</v>
       </c>
       <c r="D3">
-        <v>17.92857142857143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.1347318597081056</v>
+      </c>
+      <c r="E3">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>23.56672922060695</v>
+        <v>0.8426184863497229</v>
       </c>
       <c r="D4">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1029985127179069</v>
+      </c>
+      <c r="E4">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>15.9496638386312</v>
+        <v>0.1986180085350449</v>
       </c>
       <c r="D5">
-        <v>17.92857142857143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-1.017152359647523</v>
+      </c>
+      <c r="E5">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>23.29550523400296</v>
+        <v>-0.364880196143665</v>
       </c>
       <c r="D6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1014690523761019</v>
+      </c>
+      <c r="E6">
+        <v>-1.107806411344858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>24.93940159909936</v>
+        <v>0.2256423090406473</v>
       </c>
       <c r="D7">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.2931980140840995</v>
+      </c>
+      <c r="E7">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>22.89567992255575</v>
+        <v>0.04907052386542095</v>
       </c>
       <c r="D8">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0169114350582862</v>
+      </c>
+      <c r="E8">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>20.52151158394174</v>
+        <v>-0.5015197250690897</v>
       </c>
       <c r="D9">
-        <v>25.66666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.3066243240012231</v>
+      </c>
+      <c r="E9">
+        <v>0.4138097841888559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>17.22411034849366</v>
+        <v>-0.3622810165757339</v>
       </c>
       <c r="D10">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.9467620431970388</v>
+      </c>
+      <c r="E10">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>24.15917646189941</v>
+        <v>-0.5108850589920311</v>
       </c>
       <c r="D11">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.09658431130331625</v>
+      </c>
+      <c r="E11">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>27.96371566806631</v>
+        <v>1.646734682279025</v>
       </c>
       <c r="D12">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.6995425863170514</v>
+      </c>
+      <c r="E12">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>23.44330762024936</v>
+        <v>-0.4981037450876341</v>
       </c>
       <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.11612859211561</v>
+      </c>
+      <c r="E13">
+        <v>-1.535760966338715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>23.22495944931319</v>
+        <v>0.3917164583669297</v>
       </c>
       <c r="D14">
-        <v>19.83333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.05671139834686652</v>
+      </c>
+      <c r="E14">
+        <v>-0.4183240727436439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>17.42856971395291</v>
+        <v>-0.5833795837556853</v>
       </c>
       <c r="D15">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.7740354047729098</v>
+      </c>
+      <c r="E15">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>21.51789883563174</v>
+        <v>1.056987742886034</v>
       </c>
       <c r="D16">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.2234740570324177</v>
+      </c>
+      <c r="E16">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>24.68732896384449</v>
+        <v>-2.302811924182355</v>
       </c>
       <c r="D17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.3043959115361398</v>
+      </c>
+      <c r="E17">
+        <v>-0.9651548930135722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>20.50495607847967</v>
+        <v>-0.640274927747787</v>
       </c>
       <c r="D18">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.3516868493782328</v>
+      </c>
+      <c r="E18">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>26.43269166575794</v>
+        <v>-0.6729105744448776</v>
       </c>
       <c r="D19">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.5596720618724162</v>
+      </c>
+      <c r="E19">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>27.78876879692572</v>
+        <v>0.8383433215461333</v>
       </c>
       <c r="D20">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.7700569845923279</v>
+      </c>
+      <c r="E20">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>26.36797695278262</v>
+        <v>0.05239241805775575</v>
       </c>
       <c r="D21">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.5140906584349402</v>
+      </c>
+      <c r="E21">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>22.21474424399059</v>
+        <v>0.6891521989867773</v>
       </c>
       <c r="D22">
-        <v>17.92857142857143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1063715919858134</v>
+      </c>
+      <c r="E22">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>23.21280581907349</v>
+        <v>-0.283049349954533</v>
       </c>
       <c r="D23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06285952105526867</v>
+      </c>
+      <c r="E23">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>20.29953332325739</v>
+        <v>-2.032184597405229</v>
       </c>
       <c r="D24">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.3423199823769646</v>
+      </c>
+      <c r="E24">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>20.51224534596653</v>
+        <v>-0.6291986919676172</v>
       </c>
       <c r="D25">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.3723557552400116</v>
+      </c>
+      <c r="E25">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>21.8707798153344</v>
+        <v>-0.1171037976783063</v>
       </c>
       <c r="D26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.109662655946358</v>
+      </c>
+      <c r="E26">
+        <v>-1.535760966338715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>21.94334644708092</v>
+        <v>-0.4907380617287191</v>
       </c>
       <c r="D27">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>-0.1763878022672881</v>
+      </c>
+      <c r="E27">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>22.94823010409749</v>
+        <v>0.3023582231328008</v>
       </c>
       <c r="D28">
-        <v>15.66666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.1208337676037487</v>
+      </c>
+      <c r="E28">
+        <v>-1.012705399124001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>21.53991043507734</v>
+        <v>-1.48951753017439</v>
       </c>
       <c r="D29">
-        <v>18.66666666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.2171468167121621</v>
+      </c>
+      <c r="E29">
+        <v>-0.5847508441301439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>24.30583859031541</v>
+        <v>-0.4521292551942045</v>
       </c>
       <c r="D30">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.2155902654168984</v>
+      </c>
+      <c r="E30">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>21.18793048065031</v>
+        <v>-0.4930180295406101</v>
       </c>
       <c r="D31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.2632647065831496</v>
+      </c>
+      <c r="E31">
+        <v>-1.036480652179215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>24.84480580688943</v>
+        <v>0.9934402667747847</v>
       </c>
       <c r="D32">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.3129238738938537</v>
+      </c>
+      <c r="E32">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>26.53174716603559</v>
+        <v>1.105090267241812</v>
       </c>
       <c r="D33">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.5323685985242252</v>
+      </c>
+      <c r="E33">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>18.71191061904972</v>
+        <v>0.06260201558072077</v>
       </c>
       <c r="D34">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.5719482886548343</v>
+      </c>
+      <c r="E34">
+        <v>-1.036480652179215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>30.27436797637046</v>
+        <v>-0.4037203156615095</v>
       </c>
       <c r="D35">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>1.04685465334133</v>
+      </c>
+      <c r="E35">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>23.54987713508829</v>
+        <v>-0.6541257442078602</v>
       </c>
       <c r="D36">
-        <v>2.999999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.1098165545214547</v>
+      </c>
+      <c r="E36">
+        <v>-1.345558941897001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>23.48162152038279</v>
+        <v>1.363401060086582</v>
       </c>
       <c r="D37">
-        <v>18.66666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.1040512932887178</v>
+      </c>
+      <c r="E37">
+        <v>-0.5847508441301439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>19.40057829988414</v>
+        <v>-0.6812736446603203</v>
       </c>
       <c r="D38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.5165281720753382</v>
+      </c>
+      <c r="E38">
+        <v>-1.535760966338715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39">
-        <v>27.50855855254916</v>
+        <v>0.9242905841081095</v>
       </c>
       <c r="D39">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.749089633773432</v>
+      </c>
+      <c r="E39">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40">
-        <v>22.61014226443971</v>
+        <v>0.127661215180068</v>
       </c>
       <c r="D40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01535294433524113</v>
+      </c>
+      <c r="E40">
+        <v>-1.107806411344858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41">
-        <v>22.2744309213795</v>
+        <v>-0.2850616282403882</v>
       </c>
       <c r="D41">
-        <v>2.999999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.06850654681679046</v>
+      </c>
+      <c r="E41">
+        <v>-1.345558941897001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>25.97266333970859</v>
+        <v>0.7229621783361739</v>
       </c>
       <c r="D42">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.5279829725868403</v>
+      </c>
+      <c r="E42">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>19.93752655372929</v>
+        <v>-0.7659257964754655</v>
       </c>
       <c r="D43">
-        <v>2.999999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.3681184338223734</v>
+      </c>
+      <c r="E43">
+        <v>-1.345558941897001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>23.07174198522671</v>
+        <v>1.188759121857292</v>
       </c>
       <c r="D44">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05503819479261009</v>
+      </c>
+      <c r="E44">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45">
-        <v>17.34137953145638</v>
+        <v>-1.716520131617953</v>
       </c>
       <c r="D45">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-0.6854172577326447</v>
+      </c>
+      <c r="E45">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46">
-        <v>28.85499499475544</v>
+        <v>1.350668904413715</v>
       </c>
       <c r="D46">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.8632363143437066</v>
+      </c>
+      <c r="E46">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>24.4593182480554</v>
+        <v>-2.347192509037311</v>
       </c>
       <c r="D47">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.3208356401280721</v>
+      </c>
+      <c r="E47">
+        <v>-1.036480652179215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48">
-        <v>17.41483428830341</v>
+        <v>-1.205643282702186</v>
       </c>
       <c r="D48">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.7016079506247715</v>
+      </c>
+      <c r="E48">
+        <v>-1.892389762166929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49">
-        <v>22.38321294724529</v>
+        <v>-0.5410008058235958</v>
       </c>
       <c r="D49">
-        <v>2.999999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0666398862607379</v>
+      </c>
+      <c r="E49">
+        <v>-2.819624631320286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50">
-        <v>23.27104172690935</v>
+        <v>-0.06896747478839287</v>
       </c>
       <c r="D50">
-        <v>17.92857142857143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.06868136115907424</v>
+      </c>
+      <c r="E50">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51">
-        <v>27.73060522929387</v>
+        <v>0.9686553637206032</v>
       </c>
       <c r="D51">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.6882172498969085</v>
+      </c>
+      <c r="E51">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52">
-        <v>21.37433775412857</v>
+        <v>0.2954030636671585</v>
       </c>
       <c r="D52">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.3860518762901284</v>
+      </c>
+      <c r="E52">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53">
-        <v>23.42514908173169</v>
+        <v>0.5601538162696293</v>
       </c>
       <c r="D53">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.09481690752344692</v>
+      </c>
+      <c r="E53">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54">
-        <v>17.85014585097399</v>
+        <v>1.268376835691033</v>
       </c>
       <c r="D54">
-        <v>25.66666666666667</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.6935971658991177</v>
+      </c>
+      <c r="E54">
+        <v>0.4138097841888559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55">
-        <v>26.10215169625219</v>
+        <v>-0.3794102483713935</v>
       </c>
       <c r="D55">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.456048971093672</v>
+      </c>
+      <c r="E55">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56">
-        <v>26.30217562647559</v>
+        <v>0.4895295147904302</v>
       </c>
       <c r="D56">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.4945566615691662</v>
+      </c>
+      <c r="E56">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57">
-        <v>18.15115857834826</v>
+        <v>-1.561031468759701</v>
       </c>
       <c r="D57">
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.7148201339727136</v>
+      </c>
+      <c r="E57">
+        <v>-0.1449086626086797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58">
-        <v>20.03573373422974</v>
+        <v>-0.6915223519004736</v>
       </c>
       <c r="D58">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.396931210696676</v>
+      </c>
+      <c r="E58">
+        <v>-0.1092457830258583</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>27.33662829621447</v>
+        <v>0.4118599871590811</v>
       </c>
       <c r="D59">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.6413112221950196</v>
+      </c>
+      <c r="E59">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
-        <v>24.9387310073603</v>
+        <v>0.3475543366462095</v>
       </c>
       <c r="D60">
-        <v>19.83333333333333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.3492886875416847</v>
+      </c>
+      <c r="E60">
+        <v>-0.4183240727436439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61">
-        <v>25.54819395993037</v>
+        <v>-0.2874621000765896</v>
       </c>
       <c r="D61">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.3890387774244425</v>
+      </c>
+      <c r="E61">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62">
-        <v>24.44515052973082</v>
+        <v>1.512626722551331</v>
       </c>
       <c r="D62">
-        <v>28.07692307692308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.1994373210978575</v>
+      </c>
+      <c r="E62">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63">
-        <v>27.93788100729018</v>
+        <v>1.706766218043248</v>
       </c>
       <c r="D63">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.7858312240710618</v>
+      </c>
+      <c r="E63">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64">
-        <v>25.31995430743398</v>
+        <v>0.1949981032146253</v>
       </c>
       <c r="D64">
-        <v>13.33333333333333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.2978743032087288</v>
+      </c>
+      <c r="E64">
+        <v>-2.819624631320286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65">
-        <v>24.88864223420861</v>
+        <v>0.3889753229383358</v>
       </c>
       <c r="D65">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.2196319398097709</v>
+      </c>
+      <c r="E65">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66">
-        <v>25.82147538217705</v>
+        <v>0.05449814639992109</v>
       </c>
       <c r="D66">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.4167640927351005</v>
+      </c>
+      <c r="E66">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67">
-        <v>21.85441376480239</v>
+        <v>0.1211393158998829</v>
       </c>
       <c r="D67">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.1246694510125395</v>
+      </c>
+      <c r="E67">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68">
-        <v>23.92861829256622</v>
+        <v>-0.4970204540332109</v>
       </c>
       <c r="D68">
-        <v>29.04347826086957</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.1665342033880273</v>
+      </c>
+      <c r="E68">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69">
-        <v>23.87295260137848</v>
+        <v>0.594074380132057</v>
       </c>
       <c r="D69">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.1484229798601338</v>
+      </c>
+      <c r="E69">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70">
-        <v>25.11922973333535</v>
+        <v>0.5550608641777632</v>
       </c>
       <c r="D70">
-        <v>17.92857142857143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.3318855521214473</v>
+      </c>
+      <c r="E70">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71">
+        <v>-1.050600889409832</v>
+      </c>
+      <c r="D71">
+        <v>-0.8431523611615274</v>
+      </c>
+      <c r="E71">
+        <v>-0.6900412505175212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>0.9324599076936281</v>
+      </c>
+      <c r="D72">
+        <v>0.4392607860648898</v>
+      </c>
+      <c r="E72">
+        <v>0.4138097841888559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>0.8272976923102588</v>
+      </c>
+      <c r="D73">
+        <v>0.1231834351214147</v>
+      </c>
+      <c r="E73">
+        <v>-0.6900412505175213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="C71">
-        <v>16.96053647880519</v>
-      </c>
-      <c r="D71">
-        <v>17.92857142857143</v>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>0.6077948974937406</v>
+      </c>
+      <c r="D74">
+        <v>0.1174634410128126</v>
+      </c>
+      <c r="E74">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>0.1255014665343125</v>
+      </c>
+      <c r="D75">
+        <v>-0.9881303371904955</v>
+      </c>
+      <c r="E75">
+        <v>-0.6900412505175213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>-0.7107750835147698</v>
+      </c>
+      <c r="D76">
+        <v>0.07827135143985441</v>
+      </c>
+      <c r="E76">
+        <v>-1.107806411344858</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>0.2315119508988381</v>
+      </c>
+      <c r="D77">
+        <v>0.3173203203646161</v>
+      </c>
+      <c r="E77">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>-0.3781192280048145</v>
+      </c>
+      <c r="D78">
+        <v>0.02276593752130258</v>
+      </c>
+      <c r="E78">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>-0.5179172540069679</v>
+      </c>
+      <c r="D79">
+        <v>-0.3246021697729536</v>
+      </c>
+      <c r="E79">
+        <v>0.4138097841888559</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>-0.00882624979483378</v>
+      </c>
+      <c r="D80">
+        <v>-0.8029309376817385</v>
+      </c>
+      <c r="E80">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>-0.39191750446044</v>
+      </c>
+      <c r="D81">
+        <v>0.1700691272754929</v>
+      </c>
+      <c r="E81">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>1.632076572768284</v>
+      </c>
+      <c r="D82">
+        <v>0.7372582086629792</v>
+      </c>
+      <c r="E82">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83">
+        <v>-0.5816337783331141</v>
+      </c>
+      <c r="D83">
+        <v>0.107978211560352</v>
+      </c>
+      <c r="E83">
+        <v>-1.535760966338715</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>0.1834044300060805</v>
+      </c>
+      <c r="D84">
+        <v>0.06620255338243437</v>
+      </c>
+      <c r="E84">
+        <v>-0.4183240727436439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <v>-0.5596083177349129</v>
+      </c>
+      <c r="D85">
+        <v>-0.7785847744888602</v>
+      </c>
+      <c r="E85">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>0.9113754205099225</v>
+      </c>
+      <c r="D86">
+        <v>-0.2355542569322234</v>
+      </c>
+      <c r="E86">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87">
+        <v>-2.318265881348009</v>
+      </c>
+      <c r="D87">
+        <v>0.2754524265918208</v>
+      </c>
+      <c r="E87">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>-0.6921125715731836</v>
+      </c>
+      <c r="D88">
+        <v>-0.3195025542768223</v>
+      </c>
+      <c r="E88">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89">
+        <v>-0.2017545964233814</v>
+      </c>
+      <c r="D89">
+        <v>0.5259440891191547</v>
+      </c>
+      <c r="E89">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90">
+        <v>0.8696666480897525</v>
+      </c>
+      <c r="D90">
+        <v>0.7196066030911318</v>
+      </c>
+      <c r="E90">
+        <v>-0.9651548930135722</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>0.3926928034431546</v>
+      </c>
+      <c r="D91">
+        <v>0.4383159816610437</v>
+      </c>
+      <c r="E91">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92">
+        <v>0.7128329047095782</v>
+      </c>
+      <c r="D92">
+        <v>-0.1007305984368315</v>
+      </c>
+      <c r="E92">
+        <v>-0.6900412505175213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>0.193739813236251</v>
+      </c>
+      <c r="D93">
+        <v>0.0669524522357088</v>
+      </c>
+      <c r="E93">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>-2.187627685960616</v>
+      </c>
+      <c r="D94">
+        <v>-0.3461410706051479</v>
+      </c>
+      <c r="E94">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95">
+        <v>-0.8555365006080867</v>
+      </c>
+      <c r="D95">
+        <v>-0.3208154862159742</v>
+      </c>
+      <c r="E95">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96">
+        <v>-0.08885494807062634</v>
+      </c>
+      <c r="D96">
+        <v>-0.1289431221803449</v>
+      </c>
+      <c r="E96">
+        <v>-1.535760966338715</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>-0.5457935776799516</v>
+      </c>
+      <c r="D97">
+        <v>-0.159719217123771</v>
+      </c>
+      <c r="E97">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98">
+        <v>0.1613337618642807</v>
+      </c>
+      <c r="D98">
+        <v>-0.08814305509837524</v>
+      </c>
+      <c r="E98">
+        <v>-1.012705399124001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99">
+        <v>-1.261331719044138</v>
+      </c>
+      <c r="D99">
+        <v>-0.1726593821568806</v>
+      </c>
+      <c r="E99">
+        <v>-0.5847508441301439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100">
+        <v>-0.785460578918574</v>
+      </c>
+      <c r="D100">
+        <v>0.2193287806223052</v>
+      </c>
+      <c r="E100">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101">
+        <v>-0.4936564718282835</v>
+      </c>
+      <c r="D101">
+        <v>-0.2267807037963703</v>
+      </c>
+      <c r="E101">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102">
+        <v>0.7331667052494447</v>
+      </c>
+      <c r="D102">
+        <v>0.3038283607784449</v>
+      </c>
+      <c r="E102">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103">
+        <v>1.08960211295882</v>
+      </c>
+      <c r="D103">
+        <v>0.5304559324503674</v>
+      </c>
+      <c r="E103">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104">
+        <v>0.1732086346216178</v>
+      </c>
+      <c r="D104">
+        <v>-0.5787064450580106</v>
+      </c>
+      <c r="E104">
+        <v>-1.036480652179215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105">
+        <v>-0.5604031211267083</v>
+      </c>
+      <c r="D105">
+        <v>1.050303604389765</v>
+      </c>
+      <c r="E105">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106">
+        <v>-0.6518790602047442</v>
+      </c>
+      <c r="D106">
+        <v>0.1405582581299668</v>
+      </c>
+      <c r="E106">
+        <v>-1.345558941897001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107">
+        <v>1.578112082862214</v>
+      </c>
+      <c r="D107">
+        <v>0.1056388151882252</v>
+      </c>
+      <c r="E107">
+        <v>-0.5847508441301439</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108">
+        <v>-0.7466893159949141</v>
+      </c>
+      <c r="D108">
+        <v>-0.4797686992140112</v>
+      </c>
+      <c r="E108">
+        <v>-1.535760966338715</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109">
+        <v>1.095550449322853</v>
+      </c>
+      <c r="D109">
+        <v>0.7029923564465809</v>
+      </c>
+      <c r="E109">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110">
+        <v>-0.003523945418795099</v>
+      </c>
+      <c r="D110">
+        <v>-0.0178919923568041</v>
+      </c>
+      <c r="E110">
+        <v>-1.107806411344858</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111">
+        <v>-0.3787431526226194</v>
+      </c>
+      <c r="D111">
+        <v>-0.07484026971126954</v>
+      </c>
+      <c r="E111">
+        <v>-1.345558941897001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112">
+        <v>0.1547320420987953</v>
+      </c>
+      <c r="D112">
+        <v>0.4285317286678041</v>
+      </c>
+      <c r="E112">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113">
+        <v>-1.042801596258161</v>
+      </c>
+      <c r="D113">
+        <v>-0.4060278195608151</v>
+      </c>
+      <c r="E113">
+        <v>-2.819624631320286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114">
+        <v>1.334358600678642</v>
+      </c>
+      <c r="D114">
+        <v>0.03735366426146498</v>
+      </c>
+      <c r="E114">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115">
+        <v>-1.829030552734493</v>
+      </c>
+      <c r="D115">
+        <v>-0.7776670800644544</v>
+      </c>
+      <c r="E115">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116">
+        <v>1.09392501447103</v>
+      </c>
+      <c r="D116">
+        <v>0.8622349573313269</v>
+      </c>
+      <c r="E116">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117">
+        <v>-2.416815260188019</v>
+      </c>
+      <c r="D117">
+        <v>0.2425460349969748</v>
+      </c>
+      <c r="E117">
+        <v>0.8893148452931414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118">
+        <v>-1.156385830086604</v>
+      </c>
+      <c r="D118">
+        <v>-0.7617257236769295</v>
+      </c>
+      <c r="E118">
+        <v>-0.1092457830258583</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119">
+        <v>-0.3970712168168722</v>
+      </c>
+      <c r="D119">
+        <v>-0.05892433048282812</v>
+      </c>
+      <c r="E119">
+        <v>-1.345558941897001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120">
+        <v>-0.1945054968737186</v>
+      </c>
+      <c r="D120">
+        <v>0.0545017278035162</v>
+      </c>
+      <c r="E120">
+        <v>-0.6900412505175213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121">
+        <v>1.242979730368757</v>
+      </c>
+      <c r="D121">
+        <v>0.7023228515742485</v>
+      </c>
+      <c r="E121">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122">
+        <v>0.33848075086857</v>
+      </c>
+      <c r="D122">
+        <v>-0.3808949877803086</v>
+      </c>
+      <c r="E122">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123">
+        <v>0.7233602082296956</v>
+      </c>
+      <c r="D123">
+        <v>0.1018619924030737</v>
+      </c>
+      <c r="E123">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124">
+        <v>1.338469386344796</v>
+      </c>
+      <c r="D124">
+        <v>-0.7093225412479967</v>
+      </c>
+      <c r="E124">
+        <v>0.4138097841888559</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125">
+        <v>-0.4169831837583281</v>
+      </c>
+      <c r="D125">
+        <v>0.4755525787422398</v>
+      </c>
+      <c r="E125">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126">
+        <v>0.1548789304367762</v>
+      </c>
+      <c r="D126">
+        <v>0.5112183296150702</v>
+      </c>
+      <c r="E126">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>59</v>
+      </c>
+      <c r="C127">
+        <v>-1.252898479819855</v>
+      </c>
+      <c r="D127">
+        <v>-0.6942940533920212</v>
+      </c>
+      <c r="E127">
+        <v>-0.1449086626086797</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128">
+        <v>-0.3542947372309704</v>
+      </c>
+      <c r="D128">
+        <v>-0.3874276484692952</v>
+      </c>
+      <c r="E128">
+        <v>-0.1092457830258583</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>61</v>
+      </c>
+      <c r="C129">
+        <v>0.4728280371214951</v>
+      </c>
+      <c r="D129">
+        <v>0.6501363981269876</v>
+      </c>
+      <c r="E129">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>62</v>
+      </c>
+      <c r="C130">
+        <v>0.000288560654084208</v>
+      </c>
+      <c r="D130">
+        <v>0.311026119091265</v>
+      </c>
+      <c r="E130">
+        <v>-0.4183240727436439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131">
+        <v>0.05322473037477914</v>
+      </c>
+      <c r="D131">
+        <v>0.4037111625034102</v>
+      </c>
+      <c r="E131">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132">
+        <v>1.400213616724149</v>
+      </c>
+      <c r="D132">
+        <v>0.2373532934258071</v>
+      </c>
+      <c r="E132">
+        <v>0.7576365206796469</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133">
+        <v>1.806589787497036</v>
+      </c>
+      <c r="D133">
+        <v>0.7486205728507156</v>
+      </c>
+      <c r="E133">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>66</v>
+      </c>
+      <c r="C134">
+        <v>0.3868148081872077</v>
+      </c>
+      <c r="D134">
+        <v>0.2923149969427802</v>
+      </c>
+      <c r="E134">
+        <v>-1.345558941897001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135">
+        <v>0.4105556140465548</v>
+      </c>
+      <c r="D135">
+        <v>0.2427435036344219</v>
+      </c>
+      <c r="E135">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>68</v>
+      </c>
+      <c r="C136">
+        <v>0.09280115507972049</v>
+      </c>
+      <c r="D136">
+        <v>0.4343856648018532</v>
+      </c>
+      <c r="E136">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>69</v>
+      </c>
+      <c r="C137">
+        <v>0.2827557215904909</v>
+      </c>
+      <c r="D137">
+        <v>-0.1307999414190235</v>
+      </c>
+      <c r="E137">
+        <v>0.8179890861274984</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>70</v>
+      </c>
+      <c r="C138">
+        <v>-0.2883864206812081</v>
+      </c>
+      <c r="D138">
+        <v>0.1652947452422635</v>
+      </c>
+      <c r="E138">
+        <v>0.8893148452931418</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139">
+        <v>0.5645002289016098</v>
+      </c>
+      <c r="D139">
+        <v>0.1603347716007489</v>
+      </c>
+      <c r="E139">
+        <v>-0.9651548930135722</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140">
+        <v>0.6088336795234032</v>
+      </c>
+      <c r="D140">
+        <v>0.2817325383111006</v>
+      </c>
+      <c r="E140">
+        <v>-0.6900412505175213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141">
+        <v>-1.001133032611176</v>
+      </c>
+      <c r="D141">
+        <v>-0.8272628815080859</v>
+      </c>
+      <c r="E141">
+        <v>-0.6900412505175213</v>
       </c>
     </row>
   </sheetData>

--- a/adresso_1024_regression_False.xlsx
+++ b/adresso_1024_regression_False.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>speaker</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.3375046779533498</v>
+        <v>29.30245077588511</v>
       </c>
       <c r="D2">
-        <v>0.5514060201263612</v>
+        <v>25.84508048359449</v>
       </c>
       <c r="E2">
-        <v>0.4138097841888559</v>
+        <v>25.66666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -638,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1.26099038697342</v>
+        <v>28.56525416828121</v>
       </c>
       <c r="D3">
-        <v>0.1347318597081056</v>
+        <v>23.62934976694389</v>
       </c>
       <c r="E3">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -655,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.8426184863497229</v>
+        <v>27.02651979388249</v>
       </c>
       <c r="D4">
-        <v>0.1029985127179069</v>
+        <v>23.58925209272694</v>
       </c>
       <c r="E4">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.1986180085350449</v>
+        <v>23.64559937606137</v>
       </c>
       <c r="D5">
-        <v>-1.017152359647523</v>
+        <v>15.83894006565309</v>
       </c>
       <c r="E5">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -689,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>-0.364880196143665</v>
+        <v>17.78322539061972</v>
       </c>
       <c r="D6">
-        <v>0.1014690523761019</v>
+        <v>23.31451201262529</v>
       </c>
       <c r="E6">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -706,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.2256423090406473</v>
+        <v>24.38874242567359</v>
       </c>
       <c r="D7">
-        <v>0.2931980140840995</v>
+        <v>24.9902668291258</v>
       </c>
       <c r="E7">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -723,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.04907052386542095</v>
+        <v>20.1151729184225</v>
       </c>
       <c r="D8">
-        <v>0.0169114350582862</v>
+        <v>22.9254140586193</v>
       </c>
       <c r="E8">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -740,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-0.5015197250690897</v>
+        <v>19.13517615682131</v>
       </c>
       <c r="D9">
-        <v>-0.3066243240012231</v>
+        <v>20.49033231986382</v>
       </c>
       <c r="E9">
-        <v>0.4138097841888559</v>
+        <v>25.66666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -757,13 +757,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-0.3622810165757339</v>
+        <v>22.70394997828075</v>
       </c>
       <c r="D10">
-        <v>-0.9467620431970388</v>
+        <v>17.13720454734379</v>
       </c>
       <c r="E10">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -774,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>-0.5108850589920311</v>
+        <v>20.01844575689604</v>
       </c>
       <c r="D11">
-        <v>0.09658431130331625</v>
+        <v>23.95802269452672</v>
       </c>
       <c r="E11">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -791,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>1.646734682279025</v>
+        <v>34.20682665115555</v>
       </c>
       <c r="D12">
-        <v>0.6995425863170514</v>
+        <v>27.93406927308664</v>
       </c>
       <c r="E12">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -808,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>-0.4981037450876341</v>
+        <v>18.68851757883004</v>
       </c>
       <c r="D13">
-        <v>0.11612859211561</v>
+        <v>23.52275977940692</v>
       </c>
       <c r="E13">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -825,13 +825,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.3917164583669297</v>
+        <v>24.05150436851506</v>
       </c>
       <c r="D14">
-        <v>0.05671139834686652</v>
+        <v>23.22990865053985</v>
       </c>
       <c r="E14">
-        <v>-0.4183240727436439</v>
+        <v>19.83333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -842,13 +842,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>-0.5833795837556853</v>
+        <v>18.84291804267264</v>
       </c>
       <c r="D15">
-        <v>-0.7740354047729098</v>
+        <v>17.30787334552888</v>
       </c>
       <c r="E15">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -859,13 +859,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>1.056987742886034</v>
+        <v>29.15464662048355</v>
       </c>
       <c r="D16">
-        <v>-0.2234740570324177</v>
+        <v>21.11456621433896</v>
       </c>
       <c r="E16">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -876,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>-2.302811924182355</v>
+        <v>6.51457002236702</v>
       </c>
       <c r="D17">
-        <v>0.3043959115361398</v>
+        <v>24.69676912042589</v>
       </c>
       <c r="E17">
-        <v>-0.9651548930135722</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -893,13 +893,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>-0.640274927747787</v>
+        <v>17.91405128129299</v>
       </c>
       <c r="D18">
-        <v>-0.3516868493782328</v>
+        <v>20.52608108409561</v>
       </c>
       <c r="E18">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -910,13 +910,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>-0.6729105744448776</v>
+        <v>21.35150488070736</v>
       </c>
       <c r="D19">
-        <v>0.5596720618724162</v>
+        <v>26.45273825035556</v>
       </c>
       <c r="E19">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -927,13 +927,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.8383433215461333</v>
+        <v>28.8622643668064</v>
       </c>
       <c r="D20">
-        <v>0.7700569845923279</v>
+        <v>27.81032992717337</v>
       </c>
       <c r="E20">
-        <v>0.8893148452931414</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -944,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.05239241805775575</v>
+        <v>25.51863472846703</v>
       </c>
       <c r="D21">
-        <v>0.5140906584349402</v>
+        <v>25.83845731957284</v>
       </c>
       <c r="E21">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -961,13 +961,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0.6891521989867773</v>
+        <v>27.76284569103771</v>
       </c>
       <c r="D22">
-        <v>-0.1063715919858134</v>
+        <v>22.05969221140185</v>
       </c>
       <c r="E22">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -978,13 +978,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>-0.283049349954533</v>
+        <v>24.12395633643711</v>
       </c>
       <c r="D23">
-        <v>0.06285952105526867</v>
+        <v>23.23516550908609</v>
       </c>
       <c r="E23">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -995,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>-2.032184597405229</v>
+        <v>7.430355545827114</v>
       </c>
       <c r="D24">
-        <v>-0.3423199823769646</v>
+        <v>20.33934268383224</v>
       </c>
       <c r="E24">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1012,13 +1012,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>-0.6291986919676172</v>
+        <v>16.76843481014281</v>
       </c>
       <c r="D25">
-        <v>-0.3723557552400116</v>
+        <v>20.51687731287389</v>
       </c>
       <c r="E25">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1029,13 +1029,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>-0.1171037976783063</v>
+        <v>22.14294159076441</v>
       </c>
       <c r="D26">
-        <v>-0.109662655946358</v>
+        <v>21.86191987730027</v>
       </c>
       <c r="E26">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1046,13 +1046,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>-0.4907380617287191</v>
+        <v>18.93976061551423</v>
       </c>
       <c r="D27">
-        <v>-0.1763878022672881</v>
+        <v>21.64617667804491</v>
       </c>
       <c r="E27">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1063,13 +1063,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>0.3023582231328008</v>
+        <v>23.8967869957175</v>
       </c>
       <c r="D28">
-        <v>-0.1208337676037487</v>
+        <v>22.14793202465939</v>
       </c>
       <c r="E28">
-        <v>-1.012705399124001</v>
+        <v>15.66666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1080,13 +1080,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>-1.48951753017439</v>
+        <v>13.92377375652783</v>
       </c>
       <c r="D29">
-        <v>-0.2171468167121621</v>
+        <v>21.55546495492775</v>
       </c>
       <c r="E29">
-        <v>-0.5847508441301439</v>
+        <v>18.66666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1097,13 +1097,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>-0.4521292551942045</v>
+        <v>17.25967333679328</v>
       </c>
       <c r="D30">
-        <v>0.2155902654168984</v>
+        <v>24.30333730402435</v>
       </c>
       <c r="E30">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1114,13 +1114,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>-0.4930180295406101</v>
+        <v>19.30524642640191</v>
       </c>
       <c r="D31">
-        <v>-0.2632647065831496</v>
+        <v>21.17606961253959</v>
       </c>
       <c r="E31">
-        <v>-1.036480652179215</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1131,13 +1131,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>0.9934402667747847</v>
+        <v>27.90538746541017</v>
       </c>
       <c r="D32">
-        <v>0.3129238738938537</v>
+        <v>24.89568697646108</v>
       </c>
       <c r="E32">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1148,13 +1148,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>1.105090267241812</v>
+        <v>30.40403179726796</v>
       </c>
       <c r="D33">
-        <v>0.5323685985242252</v>
+        <v>26.48436667873818</v>
       </c>
       <c r="E33">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1165,13 +1165,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>0.06260201558072077</v>
+        <v>23.9800309239718</v>
       </c>
       <c r="D34">
-        <v>-0.5719482886548343</v>
+        <v>18.70903844891504</v>
       </c>
       <c r="E34">
-        <v>-1.036480652179215</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1182,13 +1182,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>-0.4037203156615095</v>
+        <v>18.83734639926434</v>
       </c>
       <c r="D35">
-        <v>1.04685465334133</v>
+        <v>30.12854571041265</v>
       </c>
       <c r="E35">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1199,13 +1199,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>-0.6541257442078602</v>
+        <v>18.19609182203932</v>
       </c>
       <c r="D36">
-        <v>0.1098165545214547</v>
+        <v>23.75114884214337</v>
       </c>
       <c r="E36">
-        <v>-1.345558941897001</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1216,13 +1216,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>1.363401060086582</v>
+        <v>33.82853071335315</v>
       </c>
       <c r="D37">
-        <v>0.1040512932887178</v>
+        <v>23.50636039999972</v>
       </c>
       <c r="E37">
-        <v>-0.5847508441301439</v>
+        <v>18.66666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1233,13 +1233,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>-0.6812736446603203</v>
+        <v>17.53146338415625</v>
       </c>
       <c r="D38">
-        <v>-0.5165281720753382</v>
+        <v>19.40260096406635</v>
       </c>
       <c r="E38">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1250,13 +1250,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>0.9242905841081095</v>
+        <v>30.44573017127488</v>
       </c>
       <c r="D39">
-        <v>0.749089633773432</v>
+        <v>27.69386256083265</v>
       </c>
       <c r="E39">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1267,13 +1267,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>0.127661215180068</v>
+        <v>22.74111960982806</v>
       </c>
       <c r="D40">
-        <v>-0.01535294433524113</v>
+        <v>22.64039830586941</v>
       </c>
       <c r="E40">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1284,13 +1284,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>-0.2850616282403882</v>
+        <v>20.11079915062035</v>
       </c>
       <c r="D41">
-        <v>-0.06850654681679046</v>
+        <v>22.24118574913929</v>
       </c>
       <c r="E41">
-        <v>-1.345558941897001</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1301,13 +1301,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>0.7229621783361739</v>
+        <v>23.85050834518008</v>
       </c>
       <c r="D42">
-        <v>0.5279829725868403</v>
+        <v>25.76986882428239</v>
       </c>
       <c r="E42">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1318,13 +1318,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>-0.7659257964754655</v>
+        <v>15.45568961233019</v>
       </c>
       <c r="D43">
-        <v>-0.3681184338223734</v>
+        <v>19.91953117634733</v>
       </c>
       <c r="E43">
-        <v>-1.345558941897001</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1335,13 +1335,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>1.188759121857292</v>
+        <v>32.11979683491315</v>
       </c>
       <c r="D44">
-        <v>0.05503819479261009</v>
+        <v>23.02767533778974</v>
       </c>
       <c r="E44">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1352,13 +1352,13 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>-1.716520131617953</v>
+        <v>9.944153768383275</v>
       </c>
       <c r="D45">
-        <v>-0.6854172577326447</v>
+        <v>17.31430646615136</v>
       </c>
       <c r="E45">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1369,13 +1369,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>1.350668904413715</v>
+        <v>30.43433572647095</v>
       </c>
       <c r="D46">
-        <v>0.8632363143437066</v>
+        <v>28.81016754480716</v>
       </c>
       <c r="E46">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1386,13 +1386,13 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>-2.347192509037311</v>
+        <v>5.823729994915341</v>
       </c>
       <c r="D47">
-        <v>0.3208356401280721</v>
+        <v>24.46609234965065</v>
       </c>
       <c r="E47">
-        <v>-1.036480652179215</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1403,13 +1403,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>-1.205643282702186</v>
+        <v>14.65945389639017</v>
       </c>
       <c r="D48">
-        <v>-0.7016079506247715</v>
+        <v>17.42605681114596</v>
       </c>
       <c r="E48">
-        <v>-1.892389762166929</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1420,13 +1420,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>-0.5410008058235958</v>
+        <v>19.98231776879805</v>
       </c>
       <c r="D49">
-        <v>-0.0666398862607379</v>
+        <v>22.35275791755799</v>
       </c>
       <c r="E49">
-        <v>-2.819624631320286</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1437,13 +1437,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>-0.06896747478839287</v>
+        <v>21.4023217218771</v>
       </c>
       <c r="D50">
-        <v>0.06868136115907424</v>
+        <v>23.1478848086923</v>
       </c>
       <c r="E50">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1454,13 +1454,13 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>0.9686553637206032</v>
+        <v>31.47922271850121</v>
       </c>
       <c r="D51">
-        <v>0.6882172498969085</v>
+        <v>27.68916927133833</v>
       </c>
       <c r="E51">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1471,13 +1471,13 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>0.2954030636671585</v>
+        <v>25.13860335404671</v>
       </c>
       <c r="D52">
-        <v>-0.3860518762901284</v>
+        <v>20.09571459223036</v>
       </c>
       <c r="E52">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1488,13 +1488,13 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>0.5601538162696293</v>
+        <v>27.83664303748915</v>
       </c>
       <c r="D53">
-        <v>0.09481690752344692</v>
+        <v>23.47988453188887</v>
       </c>
       <c r="E53">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1505,13 +1505,13 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>1.268376835691033</v>
+        <v>32.14861381291831</v>
       </c>
       <c r="D54">
-        <v>-0.6935971658991177</v>
+        <v>17.79340784282047</v>
       </c>
       <c r="E54">
-        <v>0.4138097841888559</v>
+        <v>25.66666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1522,13 +1522,13 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>-0.3794102483713935</v>
+        <v>19.84273308596829</v>
       </c>
       <c r="D55">
-        <v>0.456048971093672</v>
+        <v>26.09948922106806</v>
       </c>
       <c r="E55">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1539,13 +1539,13 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>0.4895295147904302</v>
+        <v>23.85153804566767</v>
       </c>
       <c r="D56">
-        <v>0.4945566615691662</v>
+        <v>26.3495093490698</v>
       </c>
       <c r="E56">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1556,13 +1556,13 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>-1.561031468759701</v>
+        <v>13.98289152353749</v>
       </c>
       <c r="D57">
-        <v>-0.7148201339727136</v>
+        <v>17.89875889713644</v>
       </c>
       <c r="E57">
-        <v>-0.1449086626086797</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1573,13 +1573,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>-0.6915223519004736</v>
+        <v>20.28218474593432</v>
       </c>
       <c r="D58">
-        <v>-0.396931210696676</v>
+        <v>20.04992005204317</v>
       </c>
       <c r="E58">
-        <v>-0.1092457830258583</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1590,13 +1590,13 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>0.4118599871590811</v>
+        <v>26.08038993875676</v>
       </c>
       <c r="D59">
-        <v>0.6413112221950196</v>
+        <v>27.32333752935808</v>
       </c>
       <c r="E59">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1607,13 +1607,13 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>0.3475543366462095</v>
+        <v>22.76784562100185</v>
       </c>
       <c r="D60">
-        <v>0.3492886875416847</v>
+        <v>24.94614391093342</v>
       </c>
       <c r="E60">
-        <v>-0.4183240727436439</v>
+        <v>19.83333333333333</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1624,13 +1624,13 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>-0.2874621000765896</v>
+        <v>23.1389329416272</v>
       </c>
       <c r="D61">
-        <v>0.3890387774244425</v>
+        <v>25.59587441851132</v>
       </c>
       <c r="E61">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1641,13 +1641,13 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>1.512626722551331</v>
+        <v>32.58144643258914</v>
       </c>
       <c r="D62">
-        <v>0.1994373210978575</v>
+        <v>24.42969076323985</v>
       </c>
       <c r="E62">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1658,13 +1658,13 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>1.706766218043248</v>
+        <v>35.43018001444379</v>
       </c>
       <c r="D63">
-        <v>0.7858312240710618</v>
+        <v>28.0137204700781</v>
       </c>
       <c r="E63">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1675,13 +1675,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>0.1949981032146253</v>
+        <v>25.4774294519673</v>
       </c>
       <c r="D64">
-        <v>0.2978743032087288</v>
+        <v>24.81497725832877</v>
       </c>
       <c r="E64">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1692,13 +1692,13 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>0.3889753229383358</v>
+        <v>25.64385464068638</v>
       </c>
       <c r="D65">
-        <v>0.2196319398097709</v>
+        <v>24.46747662259606</v>
       </c>
       <c r="E65">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1709,13 +1709,13 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>0.05449814639992109</v>
+        <v>23.41636724564233</v>
       </c>
       <c r="D66">
-        <v>0.4167640927351005</v>
+        <v>25.81090544416929</v>
       </c>
       <c r="E66">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1726,13 +1726,13 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>0.1211393158998829</v>
+        <v>24.74796587657755</v>
       </c>
       <c r="D67">
-        <v>-0.1246694510125395</v>
+        <v>21.84890340709092</v>
       </c>
       <c r="E67">
-        <v>0.8179890861274984</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1743,13 +1743,13 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>-0.4970204540332109</v>
+        <v>20.74420798494886</v>
       </c>
       <c r="D68">
-        <v>0.1665342033880273</v>
+        <v>23.92455384618161</v>
       </c>
       <c r="E68">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1760,13 +1760,13 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>0.594074380132057</v>
+        <v>26.72302026511067</v>
       </c>
       <c r="D69">
-        <v>0.1484229798601338</v>
+        <v>23.88978398393594</v>
       </c>
       <c r="E69">
-        <v>0.8893148452931414</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1777,13 +1777,13 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>0.5550608641777632</v>
+        <v>27.03380174953088</v>
       </c>
       <c r="D70">
-        <v>0.3318855521214473</v>
+        <v>24.74079326957441</v>
       </c>
       <c r="E70">
-        <v>-0.6900412505175212</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1794,1203 +1794,13 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>-1.050600889409832</v>
+        <v>15.7477899988835</v>
       </c>
       <c r="D71">
-        <v>-0.8431523611615274</v>
+        <v>16.96663542819961</v>
       </c>
       <c r="E71">
-        <v>-0.6900412505175212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72">
-        <v>0.9324599076936281</v>
-      </c>
-      <c r="D72">
-        <v>0.4392607860648898</v>
-      </c>
-      <c r="E72">
-        <v>0.4138097841888559</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <v>0.8272976923102588</v>
-      </c>
-      <c r="D73">
-        <v>0.1231834351214147</v>
-      </c>
-      <c r="E73">
-        <v>-0.6900412505175213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>0.6077948974937406</v>
-      </c>
-      <c r="D74">
-        <v>0.1174634410128126</v>
-      </c>
-      <c r="E74">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75">
-        <v>0.1255014665343125</v>
-      </c>
-      <c r="D75">
-        <v>-0.9881303371904955</v>
-      </c>
-      <c r="E75">
-        <v>-0.6900412505175213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>-0.7107750835147698</v>
-      </c>
-      <c r="D76">
-        <v>0.07827135143985441</v>
-      </c>
-      <c r="E76">
-        <v>-1.107806411344858</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>0.2315119508988381</v>
-      </c>
-      <c r="D77">
-        <v>0.3173203203646161</v>
-      </c>
-      <c r="E77">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78">
-        <v>-0.3781192280048145</v>
-      </c>
-      <c r="D78">
-        <v>0.02276593752130258</v>
-      </c>
-      <c r="E78">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79">
-        <v>-0.5179172540069679</v>
-      </c>
-      <c r="D79">
-        <v>-0.3246021697729536</v>
-      </c>
-      <c r="E79">
-        <v>0.4138097841888559</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80">
-        <v>-0.00882624979483378</v>
-      </c>
-      <c r="D80">
-        <v>-0.8029309376817385</v>
-      </c>
-      <c r="E80">
-        <v>0.8179890861274984</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81">
-        <v>-0.39191750446044</v>
-      </c>
-      <c r="D81">
-        <v>0.1700691272754929</v>
-      </c>
-      <c r="E81">
-        <v>0.8179890861274984</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82">
-        <v>1.632076572768284</v>
-      </c>
-      <c r="D82">
-        <v>0.7372582086629792</v>
-      </c>
-      <c r="E82">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83">
-        <v>-0.5816337783331141</v>
-      </c>
-      <c r="D83">
-        <v>0.107978211560352</v>
-      </c>
-      <c r="E83">
-        <v>-1.535760966338715</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84">
-        <v>0.1834044300060805</v>
-      </c>
-      <c r="D84">
-        <v>0.06620255338243437</v>
-      </c>
-      <c r="E84">
-        <v>-0.4183240727436439</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85">
-        <v>-0.5596083177349129</v>
-      </c>
-      <c r="D85">
-        <v>-0.7785847744888602</v>
-      </c>
-      <c r="E85">
-        <v>0.8179890861274984</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86">
-        <v>0.9113754205099225</v>
-      </c>
-      <c r="D86">
-        <v>-0.2355542569322234</v>
-      </c>
-      <c r="E86">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87">
-        <v>-2.318265881348009</v>
-      </c>
-      <c r="D87">
-        <v>0.2754524265918208</v>
-      </c>
-      <c r="E87">
-        <v>0.8893148452931414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88">
-        <v>-0.6921125715731836</v>
-      </c>
-      <c r="D88">
-        <v>-0.3195025542768223</v>
-      </c>
-      <c r="E88">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89">
-        <v>-0.2017545964233814</v>
-      </c>
-      <c r="D89">
-        <v>0.5259440891191547</v>
-      </c>
-      <c r="E89">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90">
-        <v>0.8696666480897525</v>
-      </c>
-      <c r="D90">
-        <v>0.7196066030911318</v>
-      </c>
-      <c r="E90">
-        <v>-0.9651548930135722</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91">
-        <v>0.3926928034431546</v>
-      </c>
-      <c r="D91">
-        <v>0.4383159816610437</v>
-      </c>
-      <c r="E91">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92">
-        <v>0.7128329047095782</v>
-      </c>
-      <c r="D92">
-        <v>-0.1007305984368315</v>
-      </c>
-      <c r="E92">
-        <v>-0.6900412505175213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93">
-        <v>0.193739813236251</v>
-      </c>
-      <c r="D93">
-        <v>0.0669524522357088</v>
-      </c>
-      <c r="E93">
-        <v>0.8893148452931414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94">
-        <v>-2.187627685960616</v>
-      </c>
-      <c r="D94">
-        <v>-0.3461410706051479</v>
-      </c>
-      <c r="E94">
-        <v>0.8179890861274984</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95">
-        <v>-0.8555365006080867</v>
-      </c>
-      <c r="D95">
-        <v>-0.3208154862159742</v>
-      </c>
-      <c r="E95">
-        <v>0.8179890861274984</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96">
-        <v>-0.08885494807062634</v>
-      </c>
-      <c r="D96">
-        <v>-0.1289431221803449</v>
-      </c>
-      <c r="E96">
-        <v>-1.535760966338715</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97">
-        <v>-0.5457935776799516</v>
-      </c>
-      <c r="D97">
-        <v>-0.159719217123771</v>
-      </c>
-      <c r="E97">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>30</v>
-      </c>
-      <c r="C98">
-        <v>0.1613337618642807</v>
-      </c>
-      <c r="D98">
-        <v>-0.08814305509837524</v>
-      </c>
-      <c r="E98">
-        <v>-1.012705399124001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>31</v>
-      </c>
-      <c r="C99">
-        <v>-1.261331719044138</v>
-      </c>
-      <c r="D99">
-        <v>-0.1726593821568806</v>
-      </c>
-      <c r="E99">
-        <v>-0.5847508441301439</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100">
-        <v>-0.785460578918574</v>
-      </c>
-      <c r="D100">
-        <v>0.2193287806223052</v>
-      </c>
-      <c r="E100">
-        <v>0.8179890861274984</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101">
-        <v>-0.4936564718282835</v>
-      </c>
-      <c r="D101">
-        <v>-0.2267807037963703</v>
-      </c>
-      <c r="E101">
-        <v>0.8893148452931414</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102">
-        <v>0.7331667052494447</v>
-      </c>
-      <c r="D102">
-        <v>0.3038283607784449</v>
-      </c>
-      <c r="E102">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103">
-        <v>1.08960211295882</v>
-      </c>
-      <c r="D103">
-        <v>0.5304559324503674</v>
-      </c>
-      <c r="E103">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104">
-        <v>0.1732086346216178</v>
-      </c>
-      <c r="D104">
-        <v>-0.5787064450580106</v>
-      </c>
-      <c r="E104">
-        <v>-1.036480652179215</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105">
-        <v>-0.5604031211267083</v>
-      </c>
-      <c r="D105">
-        <v>1.050303604389765</v>
-      </c>
-      <c r="E105">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106">
-        <v>-0.6518790602047442</v>
-      </c>
-      <c r="D106">
-        <v>0.1405582581299668</v>
-      </c>
-      <c r="E106">
-        <v>-1.345558941897001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107">
-        <v>1.578112082862214</v>
-      </c>
-      <c r="D107">
-        <v>0.1056388151882252</v>
-      </c>
-      <c r="E107">
-        <v>-0.5847508441301439</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>40</v>
-      </c>
-      <c r="C108">
-        <v>-0.7466893159949141</v>
-      </c>
-      <c r="D108">
-        <v>-0.4797686992140112</v>
-      </c>
-      <c r="E108">
-        <v>-1.535760966338715</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109">
-        <v>1.095550449322853</v>
-      </c>
-      <c r="D109">
-        <v>0.7029923564465809</v>
-      </c>
-      <c r="E109">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>42</v>
-      </c>
-      <c r="C110">
-        <v>-0.003523945418795099</v>
-      </c>
-      <c r="D110">
-        <v>-0.0178919923568041</v>
-      </c>
-      <c r="E110">
-        <v>-1.107806411344858</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>43</v>
-      </c>
-      <c r="C111">
-        <v>-0.3787431526226194</v>
-      </c>
-      <c r="D111">
-        <v>-0.07484026971126954</v>
-      </c>
-      <c r="E111">
-        <v>-1.345558941897001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>44</v>
-      </c>
-      <c r="C112">
-        <v>0.1547320420987953</v>
-      </c>
-      <c r="D112">
-        <v>0.4285317286678041</v>
-      </c>
-      <c r="E112">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>45</v>
-      </c>
-      <c r="C113">
-        <v>-1.042801596258161</v>
-      </c>
-      <c r="D113">
-        <v>-0.4060278195608151</v>
-      </c>
-      <c r="E113">
-        <v>-2.819624631320286</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>46</v>
-      </c>
-      <c r="C114">
-        <v>1.334358600678642</v>
-      </c>
-      <c r="D114">
-        <v>0.03735366426146498</v>
-      </c>
-      <c r="E114">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>47</v>
-      </c>
-      <c r="C115">
-        <v>-1.829030552734493</v>
-      </c>
-      <c r="D115">
-        <v>-0.7776670800644544</v>
-      </c>
-      <c r="E115">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>48</v>
-      </c>
-      <c r="C116">
-        <v>1.09392501447103</v>
-      </c>
-      <c r="D116">
-        <v>0.8622349573313269</v>
-      </c>
-      <c r="E116">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>49</v>
-      </c>
-      <c r="C117">
-        <v>-2.416815260188019</v>
-      </c>
-      <c r="D117">
-        <v>0.2425460349969748</v>
-      </c>
-      <c r="E117">
-        <v>0.8893148452931414</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>50</v>
-      </c>
-      <c r="C118">
-        <v>-1.156385830086604</v>
-      </c>
-      <c r="D118">
-        <v>-0.7617257236769295</v>
-      </c>
-      <c r="E118">
-        <v>-0.1092457830258583</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>51</v>
-      </c>
-      <c r="C119">
-        <v>-0.3970712168168722</v>
-      </c>
-      <c r="D119">
-        <v>-0.05892433048282812</v>
-      </c>
-      <c r="E119">
-        <v>-1.345558941897001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>52</v>
-      </c>
-      <c r="C120">
-        <v>-0.1945054968737186</v>
-      </c>
-      <c r="D120">
-        <v>0.0545017278035162</v>
-      </c>
-      <c r="E120">
-        <v>-0.6900412505175213</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>53</v>
-      </c>
-      <c r="C121">
-        <v>1.242979730368757</v>
-      </c>
-      <c r="D121">
-        <v>0.7023228515742485</v>
-      </c>
-      <c r="E121">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>54</v>
-      </c>
-      <c r="C122">
-        <v>0.33848075086857</v>
-      </c>
-      <c r="D122">
-        <v>-0.3808949877803086</v>
-      </c>
-      <c r="E122">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>55</v>
-      </c>
-      <c r="C123">
-        <v>0.7233602082296956</v>
-      </c>
-      <c r="D123">
-        <v>0.1018619924030737</v>
-      </c>
-      <c r="E123">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>56</v>
-      </c>
-      <c r="C124">
-        <v>1.338469386344796</v>
-      </c>
-      <c r="D124">
-        <v>-0.7093225412479967</v>
-      </c>
-      <c r="E124">
-        <v>0.4138097841888559</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>57</v>
-      </c>
-      <c r="C125">
-        <v>-0.4169831837583281</v>
-      </c>
-      <c r="D125">
-        <v>0.4755525787422398</v>
-      </c>
-      <c r="E125">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>58</v>
-      </c>
-      <c r="C126">
-        <v>0.1548789304367762</v>
-      </c>
-      <c r="D126">
-        <v>0.5112183296150702</v>
-      </c>
-      <c r="E126">
-        <v>0.8179890861274984</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>59</v>
-      </c>
-      <c r="C127">
-        <v>-1.252898479819855</v>
-      </c>
-      <c r="D127">
-        <v>-0.6942940533920212</v>
-      </c>
-      <c r="E127">
-        <v>-0.1449086626086797</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>60</v>
-      </c>
-      <c r="C128">
-        <v>-0.3542947372309704</v>
-      </c>
-      <c r="D128">
-        <v>-0.3874276484692952</v>
-      </c>
-      <c r="E128">
-        <v>-0.1092457830258583</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>61</v>
-      </c>
-      <c r="C129">
-        <v>0.4728280371214951</v>
-      </c>
-      <c r="D129">
-        <v>0.6501363981269876</v>
-      </c>
-      <c r="E129">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>62</v>
-      </c>
-      <c r="C130">
-        <v>0.000288560654084208</v>
-      </c>
-      <c r="D130">
-        <v>0.311026119091265</v>
-      </c>
-      <c r="E130">
-        <v>-0.4183240727436439</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C131">
-        <v>0.05322473037477914</v>
-      </c>
-      <c r="D131">
-        <v>0.4037111625034102</v>
-      </c>
-      <c r="E131">
-        <v>0.8179890861274984</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>64</v>
-      </c>
-      <c r="C132">
-        <v>1.400213616724149</v>
-      </c>
-      <c r="D132">
-        <v>0.2373532934258071</v>
-      </c>
-      <c r="E132">
-        <v>0.7576365206796469</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>65</v>
-      </c>
-      <c r="C133">
-        <v>1.806589787497036</v>
-      </c>
-      <c r="D133">
-        <v>0.7486205728507156</v>
-      </c>
-      <c r="E133">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>66</v>
-      </c>
-      <c r="C134">
-        <v>0.3868148081872077</v>
-      </c>
-      <c r="D134">
-        <v>0.2923149969427802</v>
-      </c>
-      <c r="E134">
-        <v>-1.345558941897001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>67</v>
-      </c>
-      <c r="C135">
-        <v>0.4105556140465548</v>
-      </c>
-      <c r="D135">
-        <v>0.2427435036344219</v>
-      </c>
-      <c r="E135">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>68</v>
-      </c>
-      <c r="C136">
-        <v>0.09280115507972049</v>
-      </c>
-      <c r="D136">
-        <v>0.4343856648018532</v>
-      </c>
-      <c r="E136">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>69</v>
-      </c>
-      <c r="C137">
-        <v>0.2827557215904909</v>
-      </c>
-      <c r="D137">
-        <v>-0.1307999414190235</v>
-      </c>
-      <c r="E137">
-        <v>0.8179890861274984</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>70</v>
-      </c>
-      <c r="C138">
-        <v>-0.2883864206812081</v>
-      </c>
-      <c r="D138">
-        <v>0.1652947452422635</v>
-      </c>
-      <c r="E138">
-        <v>0.8893148452931418</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>71</v>
-      </c>
-      <c r="C139">
-        <v>0.5645002289016098</v>
-      </c>
-      <c r="D139">
-        <v>0.1603347716007489</v>
-      </c>
-      <c r="E139">
-        <v>-0.9651548930135722</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>72</v>
-      </c>
-      <c r="C140">
-        <v>0.6088336795234032</v>
-      </c>
-      <c r="D140">
-        <v>0.2817325383111006</v>
-      </c>
-      <c r="E140">
-        <v>-0.6900412505175213</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>73</v>
-      </c>
-      <c r="C141">
-        <v>-1.001133032611176</v>
-      </c>
-      <c r="D141">
-        <v>-0.8272628815080859</v>
-      </c>
-      <c r="E141">
-        <v>-0.6900412505175213</v>
+        <v>17.92857142857143</v>
       </c>
     </row>
   </sheetData>
